--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AARON 128/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronrotem/Documents/FormSite/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>txt2</t>
   </si>
   <si>
     <t>txt1</t>
+  </si>
+  <si>
+    <t>Total Number of Units</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -347,20 +353,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>txt2</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Services</t>
   </si>
 </sst>
 </file>
@@ -353,28 +356,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronrotem/Documents/FormSite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisonsommer/Documents/HandymanForm/FormSite/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,12 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>txt2</t>
-  </si>
-  <si>
-    <t>txt1</t>
-  </si>
-  <si>
     <t>Total Number of Units</t>
   </si>
   <si>
@@ -42,6 +36,12 @@
   </si>
   <si>
     <t>Services</t>
+  </si>
+  <si>
+    <t>Toilet Seats</t>
+  </si>
+  <si>
+    <t>Tighten/rebolt</t>
   </si>
 </sst>
 </file>
@@ -359,30 +359,34 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
